--- a/API/Interfaces/Development/Current/Nightingale Mongo Elements.xlsx
+++ b/API/Interfaces/Development/Current/Nightingale Mongo Elements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="509">
   <si>
     <t>Field Name</t>
   </si>
@@ -1546,9 +1546,6 @@
   </si>
   <si>
     <t>sttid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       asdf</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1672,7 +1669,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1971,7 +1967,7 @@
   <dimension ref="A1:F500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2070,9 +2066,7 @@
       <c r="D6" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>509</v>
-      </c>
+      <c r="E6" s="12"/>
       <c r="F6" s="13" t="s">
         <v>491</v>
       </c>

--- a/API/Interfaces/Development/Current/Nightingale Mongo Elements.xlsx
+++ b/API/Interfaces/Development/Current/Nightingale Mongo Elements.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$474</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$477</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="468">
   <si>
     <t>Field Name</t>
   </si>
@@ -1420,6 +1420,9 @@
   </si>
   <si>
     <t>TimeZoneId</t>
+  </si>
+  <si>
+    <t>MEModal</t>
   </si>
 </sst>
 </file>
@@ -1802,11 +1805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E474"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:E477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1836,7 +1839,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2" s="1" t="s">
         <v>455</v>
       </c>
@@ -1851,7 +1854,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="6" t="s">
         <v>434</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="6" t="s">
         <v>445</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" s="6" t="s">
         <v>434</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="6" t="s">
         <v>434</v>
       </c>
@@ -1920,23 +1923,21 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="1" t="s">
         <v>342</v>
       </c>
@@ -1951,7 +1952,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="1" t="s">
         <v>346</v>
       </c>
@@ -1966,7 +1967,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="1" t="s">
         <v>347</v>
       </c>
@@ -1981,7 +1982,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1">
+    <row r="11" spans="1:5" s="8" customFormat="1" hidden="1">
       <c r="A11" s="1" t="s">
         <v>348</v>
       </c>
@@ -1996,7 +1997,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" s="1" t="s">
         <v>339</v>
       </c>
@@ -2011,7 +2012,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" s="1" t="s">
         <v>343</v>
       </c>
@@ -2026,7 +2027,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" s="1" t="s">
         <v>344</v>
       </c>
@@ -2041,7 +2042,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" s="1" t="s">
         <v>350</v>
       </c>
@@ -2056,7 +2057,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="1" t="s">
         <v>345</v>
       </c>
@@ -2071,7 +2072,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="1" t="s">
         <v>337</v>
       </c>
@@ -2086,7 +2087,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" s="1" t="s">
         <v>455</v>
       </c>
@@ -2101,7 +2102,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" s="1" t="s">
         <v>442</v>
       </c>
@@ -2116,7 +2117,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" s="1" t="s">
         <v>335</v>
       </c>
@@ -2131,7 +2132,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" s="1" t="s">
         <v>147</v>
       </c>
@@ -2146,7 +2147,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="1" t="s">
         <v>351</v>
       </c>
@@ -2161,7 +2162,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" s="1" t="s">
         <v>233</v>
       </c>
@@ -2176,7 +2177,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" s="1" t="s">
         <v>416</v>
       </c>
@@ -2191,7 +2192,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" s="8" customFormat="1">
+    <row r="25" spans="1:5" s="8" customFormat="1" hidden="1">
       <c r="A25" s="1" t="s">
         <v>262</v>
       </c>
@@ -2206,7 +2207,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" s="1" t="s">
         <v>272</v>
       </c>
@@ -2221,7 +2222,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" s="1" t="s">
         <v>285</v>
       </c>
@@ -2236,7 +2237,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" s="1" t="s">
         <v>434</v>
       </c>
@@ -2251,7 +2252,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="1" t="s">
         <v>445</v>
       </c>
@@ -2266,7 +2267,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="1" t="s">
         <v>434</v>
       </c>
@@ -2281,7 +2282,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="1" t="s">
         <v>445</v>
       </c>
@@ -2296,7 +2297,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" s="1" t="s">
         <v>387</v>
       </c>
@@ -2311,7 +2312,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" s="1" t="s">
         <v>356</v>
       </c>
@@ -2326,7 +2327,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" s="8" customFormat="1">
+    <row r="34" spans="1:5" s="8" customFormat="1" hidden="1">
       <c r="A34" s="1" t="s">
         <v>374</v>
       </c>
@@ -2341,7 +2342,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="1" t="s">
         <v>393</v>
       </c>
@@ -2356,7 +2357,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="1" t="s">
         <v>434</v>
       </c>
@@ -2371,7 +2372,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" s="1" t="s">
         <v>387</v>
       </c>
@@ -2386,7 +2387,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="1" t="s">
         <v>393</v>
       </c>
@@ -2401,7 +2402,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="1" t="s">
         <v>349</v>
       </c>
@@ -2416,7 +2417,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="1" t="s">
         <v>368</v>
       </c>
@@ -2431,7 +2432,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" s="8" customFormat="1">
+    <row r="41" spans="1:5" s="8" customFormat="1" hidden="1">
       <c r="A41" s="1" t="s">
         <v>387</v>
       </c>
@@ -2446,7 +2447,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" s="8" customFormat="1">
+    <row r="42" spans="1:5" s="8" customFormat="1" hidden="1">
       <c r="A42" s="1" t="s">
         <v>317</v>
       </c>
@@ -2461,7 +2462,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" s="8" customFormat="1">
+    <row r="43" spans="1:5" s="8" customFormat="1" hidden="1">
       <c r="A43" s="1" t="s">
         <v>448</v>
       </c>
@@ -2476,7 +2477,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="1" t="s">
         <v>335</v>
       </c>
@@ -2491,7 +2492,7 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="1" t="s">
         <v>351</v>
       </c>
@@ -2506,7 +2507,7 @@
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" s="1" t="s">
         <v>336</v>
       </c>
@@ -2521,7 +2522,7 @@
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" s="1" t="s">
         <v>398</v>
       </c>
@@ -2536,7 +2537,7 @@
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" s="1" t="s">
         <v>351</v>
       </c>
@@ -2551,7 +2552,7 @@
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" s="1" t="s">
         <v>398</v>
       </c>
@@ -2566,7 +2567,7 @@
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" s="1" t="s">
         <v>334</v>
       </c>
@@ -2581,7 +2582,7 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" s="1" t="s">
         <v>398</v>
       </c>
@@ -2596,7 +2597,7 @@
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" s="1" t="s">
         <v>164</v>
       </c>
@@ -2611,7 +2612,7 @@
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" s="1" t="s">
         <v>434</v>
       </c>
@@ -2626,7 +2627,7 @@
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" s="1" t="s">
         <v>445</v>
       </c>
@@ -2641,7 +2642,7 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" s="1" t="s">
         <v>314</v>
       </c>
@@ -2656,7 +2657,7 @@
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" s="1" t="s">
         <v>146</v>
       </c>
@@ -2671,7 +2672,7 @@
       </c>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" s="1" t="s">
         <v>168</v>
       </c>
@@ -2686,7 +2687,7 @@
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" s="1" t="s">
         <v>431</v>
       </c>
@@ -2701,7 +2702,7 @@
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" s="1" t="s">
         <v>362</v>
       </c>
@@ -2718,20 +2719,20 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>304</v>
+        <v>165</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" s="1" t="s">
         <v>455</v>
       </c>
@@ -2746,7 +2747,7 @@
       </c>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" s="1" t="s">
         <v>394</v>
       </c>
@@ -2761,7 +2762,7 @@
       </c>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" s="1" t="s">
         <v>394</v>
       </c>
@@ -2776,7 +2777,7 @@
       </c>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" hidden="1">
       <c r="A64" s="1" t="s">
         <v>151</v>
       </c>
@@ -2791,7 +2792,7 @@
       </c>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" s="1" t="s">
         <v>148</v>
       </c>
@@ -2806,7 +2807,7 @@
       </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" s="1" t="s">
         <v>434</v>
       </c>
@@ -2821,7 +2822,7 @@
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" s="1" t="s">
         <v>445</v>
       </c>
@@ -2836,7 +2837,7 @@
       </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" s="1" t="s">
         <v>338</v>
       </c>
@@ -2851,7 +2852,7 @@
       </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" hidden="1">
       <c r="A69" s="1" t="s">
         <v>351</v>
       </c>
@@ -2866,7 +2867,7 @@
       </c>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" hidden="1">
       <c r="A70" s="1" t="s">
         <v>351</v>
       </c>
@@ -2881,7 +2882,7 @@
       </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" hidden="1">
       <c r="A71" s="1" t="s">
         <v>317</v>
       </c>
@@ -2896,7 +2897,7 @@
       </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" hidden="1">
       <c r="A72" s="1" t="s">
         <v>319</v>
       </c>
@@ -2911,7 +2912,7 @@
       </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" s="1" t="s">
         <v>164</v>
       </c>
@@ -2926,7 +2927,7 @@
       </c>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" s="1" t="s">
         <v>362</v>
       </c>
@@ -2941,7 +2942,7 @@
       </c>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" hidden="1">
       <c r="A75" s="1" t="s">
         <v>314</v>
       </c>
@@ -2956,7 +2957,7 @@
       </c>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" s="1" t="s">
         <v>162</v>
       </c>
@@ -2971,7 +2972,7 @@
       </c>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" hidden="1">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -2986,7 +2987,7 @@
       </c>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" s="1" t="s">
         <v>151</v>
       </c>
@@ -3001,7 +3002,7 @@
       </c>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" hidden="1">
       <c r="A79" s="1" t="s">
         <v>169</v>
       </c>
@@ -3016,7 +3017,7 @@
       </c>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" hidden="1">
       <c r="A80" s="1" t="s">
         <v>398</v>
       </c>
@@ -3031,7 +3032,7 @@
       </c>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" s="1" t="s">
         <v>145</v>
       </c>
@@ -3046,7 +3047,7 @@
       </c>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" s="1" t="s">
         <v>368</v>
       </c>
@@ -3061,7 +3062,7 @@
       </c>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" hidden="1">
       <c r="A83" s="1" t="s">
         <v>374</v>
       </c>
@@ -3076,7 +3077,7 @@
       </c>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84" s="1" t="s">
         <v>387</v>
       </c>
@@ -3091,7 +3092,7 @@
       </c>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" hidden="1">
       <c r="A85" s="1" t="s">
         <v>394</v>
       </c>
@@ -3106,7 +3107,7 @@
       </c>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" hidden="1">
       <c r="A86" s="1" t="s">
         <v>416</v>
       </c>
@@ -3121,7 +3122,7 @@
       </c>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" s="1" t="s">
         <v>147</v>
       </c>
@@ -3136,7 +3137,7 @@
       </c>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" s="1" t="s">
         <v>163</v>
       </c>
@@ -3151,7 +3152,7 @@
       </c>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" hidden="1">
       <c r="A89" s="1" t="s">
         <v>393</v>
       </c>
@@ -3166,7 +3167,7 @@
       </c>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" s="1" t="s">
         <v>146</v>
       </c>
@@ -3181,7 +3182,7 @@
       </c>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" hidden="1">
       <c r="A91" s="1" t="s">
         <v>434</v>
       </c>
@@ -3196,7 +3197,7 @@
       </c>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" s="1" t="s">
         <v>441</v>
       </c>
@@ -3213,20 +3214,20 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>165</v>
+        <v>304</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>270</v>
+        <v>124</v>
       </c>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" s="7" customFormat="1">
+    <row r="94" spans="1:5" s="7" customFormat="1" hidden="1">
       <c r="A94" s="1" t="s">
         <v>321</v>
       </c>
@@ -3241,7 +3242,7 @@
       </c>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95" s="1" t="s">
         <v>430</v>
       </c>
@@ -3256,7 +3257,7 @@
       </c>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96" s="1" t="s">
         <v>354</v>
       </c>
@@ -3271,7 +3272,7 @@
       </c>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" s="1" t="s">
         <v>164</v>
       </c>
@@ -3286,7 +3287,7 @@
       </c>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98" s="1" t="s">
         <v>162</v>
       </c>
@@ -3301,7 +3302,7 @@
       </c>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" s="1" t="s">
         <v>169</v>
       </c>
@@ -3316,7 +3317,7 @@
       </c>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" s="1" t="s">
         <v>398</v>
       </c>
@@ -3336,19 +3337,19 @@
         <v>165</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>6</v>
@@ -3361,7 +3362,7 @@
       </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" s="1" t="s">
         <v>442</v>
       </c>
@@ -3376,7 +3377,7 @@
       </c>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" s="1" t="s">
         <v>349</v>
       </c>
@@ -3391,7 +3392,7 @@
       </c>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" s="1" t="s">
         <v>448</v>
       </c>
@@ -3406,7 +3407,7 @@
       </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" s="1" t="s">
         <v>455</v>
       </c>
@@ -3421,7 +3422,7 @@
       </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" s="1" t="s">
         <v>434</v>
       </c>
@@ -3436,7 +3437,7 @@
       </c>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" s="1" t="s">
         <v>434</v>
       </c>
@@ -3451,7 +3452,7 @@
       </c>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" s="1" t="s">
         <v>163</v>
       </c>
@@ -3466,7 +3467,7 @@
       </c>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" s="1" t="s">
         <v>145</v>
       </c>
@@ -3481,7 +3482,7 @@
       </c>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" s="1" t="s">
         <v>145</v>
       </c>
@@ -3496,7 +3497,7 @@
       </c>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" s="1" t="s">
         <v>434</v>
       </c>
@@ -3511,7 +3512,7 @@
       </c>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" s="1" t="s">
         <v>434</v>
       </c>
@@ -3526,7 +3527,7 @@
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" s="1" t="s">
         <v>434</v>
       </c>
@@ -3541,7 +3542,7 @@
       </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115" s="1" t="s">
         <v>434</v>
       </c>
@@ -3556,7 +3557,7 @@
       </c>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" s="1" t="s">
         <v>434</v>
       </c>
@@ -3571,7 +3572,7 @@
       </c>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117" s="1" t="s">
         <v>233</v>
       </c>
@@ -3586,7 +3587,7 @@
       </c>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118" s="1" t="s">
         <v>445</v>
       </c>
@@ -3601,7 +3602,7 @@
       </c>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" s="1" t="s">
         <v>374</v>
       </c>
@@ -3616,7 +3617,7 @@
       </c>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" s="1" t="s">
         <v>416</v>
       </c>
@@ -3631,7 +3632,7 @@
       </c>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" s="1" t="s">
         <v>147</v>
       </c>
@@ -3646,7 +3647,7 @@
       </c>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" s="1" t="s">
         <v>434</v>
       </c>
@@ -3661,7 +3662,7 @@
       </c>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" s="1" t="s">
         <v>448</v>
       </c>
@@ -3676,7 +3677,7 @@
       </c>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" s="1" t="s">
         <v>434</v>
       </c>
@@ -3691,7 +3692,7 @@
       </c>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" s="1" t="s">
         <v>147</v>
       </c>
@@ -3706,7 +3707,7 @@
       </c>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" s="1" t="s">
         <v>233</v>
       </c>
@@ -3721,7 +3722,7 @@
       </c>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" s="1" t="s">
         <v>145</v>
       </c>
@@ -3736,7 +3737,7 @@
       </c>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" s="1" t="s">
         <v>146</v>
       </c>
@@ -3751,7 +3752,7 @@
       </c>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" hidden="1">
       <c r="A129" s="1" t="s">
         <v>374</v>
       </c>
@@ -3766,7 +3767,7 @@
       </c>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130" s="1" t="s">
         <v>233</v>
       </c>
@@ -3781,7 +3782,7 @@
       </c>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131" s="1" t="s">
         <v>145</v>
       </c>
@@ -3796,7 +3797,7 @@
       </c>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132" s="1" t="s">
         <v>398</v>
       </c>
@@ -3811,7 +3812,7 @@
       </c>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" s="1" t="s">
         <v>455</v>
       </c>
@@ -3826,7 +3827,7 @@
       </c>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" s="1" t="s">
         <v>398</v>
       </c>
@@ -3841,7 +3842,7 @@
       </c>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" s="1" t="s">
         <v>430</v>
       </c>
@@ -3856,7 +3857,7 @@
       </c>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" s="1" t="s">
         <v>317</v>
       </c>
@@ -3871,7 +3872,7 @@
       </c>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" s="1" t="s">
         <v>319</v>
       </c>
@@ -3886,7 +3887,7 @@
       </c>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" hidden="1">
       <c r="A138" s="1" t="s">
         <v>164</v>
       </c>
@@ -3901,7 +3902,7 @@
       </c>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139" s="1" t="s">
         <v>262</v>
       </c>
@@ -3916,7 +3917,7 @@
       </c>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" hidden="1">
       <c r="A140" s="1" t="s">
         <v>272</v>
       </c>
@@ -3931,7 +3932,7 @@
       </c>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" hidden="1">
       <c r="A141" s="1" t="s">
         <v>285</v>
       </c>
@@ -3946,7 +3947,7 @@
       </c>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" hidden="1">
       <c r="A142" s="1" t="s">
         <v>362</v>
       </c>
@@ -3961,7 +3962,7 @@
       </c>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" hidden="1">
       <c r="A143" s="1" t="s">
         <v>314</v>
       </c>
@@ -3976,7 +3977,7 @@
       </c>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" hidden="1">
       <c r="A144" s="1" t="s">
         <v>162</v>
       </c>
@@ -3991,7 +3992,7 @@
       </c>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -4006,7 +4007,7 @@
       </c>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146" s="1" t="s">
         <v>233</v>
       </c>
@@ -4021,7 +4022,7 @@
       </c>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
@@ -4036,7 +4037,7 @@
       </c>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148" s="1" t="s">
         <v>169</v>
       </c>
@@ -4051,7 +4052,7 @@
       </c>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" hidden="1">
       <c r="A149" s="1" t="s">
         <v>398</v>
       </c>
@@ -4066,7 +4067,7 @@
       </c>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" hidden="1">
       <c r="A150" s="1" t="s">
         <v>145</v>
       </c>
@@ -4081,7 +4082,7 @@
       </c>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" hidden="1">
       <c r="A151" s="1" t="s">
         <v>368</v>
       </c>
@@ -4096,7 +4097,7 @@
       </c>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" hidden="1">
       <c r="A152" s="1" t="s">
         <v>374</v>
       </c>
@@ -4111,7 +4112,7 @@
       </c>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" hidden="1">
       <c r="A153" s="1" t="s">
         <v>387</v>
       </c>
@@ -4126,7 +4127,7 @@
       </c>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154" s="1" t="s">
         <v>394</v>
       </c>
@@ -4141,7 +4142,7 @@
       </c>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" hidden="1">
       <c r="A155" s="1" t="s">
         <v>147</v>
       </c>
@@ -4156,7 +4157,7 @@
       </c>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" hidden="1">
       <c r="A156" s="1" t="s">
         <v>431</v>
       </c>
@@ -4171,7 +4172,7 @@
       </c>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" hidden="1">
       <c r="A157" s="1" t="s">
         <v>432</v>
       </c>
@@ -4186,7 +4187,7 @@
       </c>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" hidden="1">
       <c r="A158" s="1" t="s">
         <v>163</v>
       </c>
@@ -4201,7 +4202,7 @@
       </c>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" hidden="1">
       <c r="A159" s="1" t="s">
         <v>393</v>
       </c>
@@ -4216,7 +4217,7 @@
       </c>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" hidden="1">
       <c r="A160" s="1" t="s">
         <v>146</v>
       </c>
@@ -4231,7 +4232,7 @@
       </c>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" s="7" customFormat="1">
+    <row r="161" spans="1:5" s="7" customFormat="1" hidden="1">
       <c r="A161" s="1" t="s">
         <v>168</v>
       </c>
@@ -4246,7 +4247,7 @@
       </c>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" s="1" t="s">
         <v>434</v>
       </c>
@@ -4261,7 +4262,7 @@
       </c>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" s="1" t="s">
         <v>441</v>
       </c>
@@ -4278,35 +4279,35 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>303</v>
+        <v>166</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>303</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>3</v>
+        <v>310</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>4</v>
+        <v>312</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" s="1" t="s">
         <v>442</v>
       </c>
@@ -4321,7 +4322,7 @@
       </c>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" s="1" t="s">
         <v>353</v>
       </c>
@@ -4336,7 +4337,7 @@
       </c>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" s="1" t="s">
         <v>444</v>
       </c>
@@ -4351,7 +4352,7 @@
       </c>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" s="1" t="s">
         <v>298</v>
       </c>
@@ -4366,7 +4367,7 @@
       </c>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" s="1" t="s">
         <v>321</v>
       </c>
@@ -4381,7 +4382,7 @@
       </c>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" s="1" t="s">
         <v>455</v>
       </c>
@@ -4401,17 +4402,17 @@
         <v>302</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>189</v>
+        <v>307</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" s="1" t="s">
         <v>455</v>
       </c>
@@ -4426,7 +4427,7 @@
       </c>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174" s="1" t="s">
         <v>434</v>
       </c>
@@ -4443,13 +4444,13 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>271</v>
@@ -4458,7 +4459,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>306</v>
@@ -4473,35 +4474,35 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>307</v>
+        <v>189</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E177" s="1"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>307</v>
+        <v>195</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" hidden="1">
       <c r="A179" s="1" t="s">
         <v>262</v>
       </c>
@@ -4516,7 +4517,7 @@
       </c>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" hidden="1">
       <c r="A180" s="1" t="s">
         <v>285</v>
       </c>
@@ -4531,7 +4532,7 @@
       </c>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" hidden="1">
       <c r="A181" s="1" t="s">
         <v>321</v>
       </c>
@@ -4546,7 +4547,7 @@
       </c>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" hidden="1">
       <c r="A182" s="1" t="s">
         <v>320</v>
       </c>
@@ -4561,7 +4562,7 @@
       </c>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183" s="1" t="s">
         <v>233</v>
       </c>
@@ -4576,7 +4577,7 @@
       </c>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184" s="1" t="s">
         <v>144</v>
       </c>
@@ -4591,7 +4592,7 @@
       </c>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" hidden="1">
       <c r="A185" s="1" t="s">
         <v>233</v>
       </c>
@@ -4606,7 +4607,7 @@
       </c>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186" s="1" t="s">
         <v>145</v>
       </c>
@@ -4621,7 +4622,7 @@
       </c>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187" s="1" t="s">
         <v>164</v>
       </c>
@@ -4636,7 +4637,7 @@
       </c>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188" s="1" t="s">
         <v>362</v>
       </c>
@@ -4651,7 +4652,7 @@
       </c>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189" s="1" t="s">
         <v>314</v>
       </c>
@@ -4666,7 +4667,7 @@
       </c>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190" s="1" t="s">
         <v>162</v>
       </c>
@@ -4681,7 +4682,7 @@
       </c>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191" s="1" t="s">
         <v>233</v>
       </c>
@@ -4696,7 +4697,7 @@
       </c>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" hidden="1">
       <c r="A192" s="1" t="s">
         <v>151</v>
       </c>
@@ -4711,7 +4712,7 @@
       </c>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193" s="1" t="s">
         <v>169</v>
       </c>
@@ -4726,7 +4727,7 @@
       </c>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194" s="1" t="s">
         <v>398</v>
       </c>
@@ -4741,7 +4742,7 @@
       </c>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195" s="1" t="s">
         <v>145</v>
       </c>
@@ -4756,7 +4757,7 @@
       </c>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196" s="1" t="s">
         <v>368</v>
       </c>
@@ -4771,7 +4772,7 @@
       </c>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197" s="1" t="s">
         <v>374</v>
       </c>
@@ -4786,7 +4787,7 @@
       </c>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198" s="1" t="s">
         <v>387</v>
       </c>
@@ -4801,7 +4802,7 @@
       </c>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199" s="1" t="s">
         <v>394</v>
       </c>
@@ -4816,7 +4817,7 @@
       </c>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" hidden="1">
       <c r="A200" s="1" t="s">
         <v>416</v>
       </c>
@@ -4831,7 +4832,7 @@
       </c>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201" s="1" t="s">
         <v>147</v>
       </c>
@@ -4846,7 +4847,7 @@
       </c>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" hidden="1">
       <c r="A202" s="1" t="s">
         <v>163</v>
       </c>
@@ -4861,7 +4862,7 @@
       </c>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203" s="1" t="s">
         <v>393</v>
       </c>
@@ -4876,7 +4877,7 @@
       </c>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204" s="1" t="s">
         <v>146</v>
       </c>
@@ -4891,7 +4892,7 @@
       </c>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205" s="1" t="s">
         <v>434</v>
       </c>
@@ -4906,7 +4907,7 @@
       </c>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206" s="1" t="s">
         <v>441</v>
       </c>
@@ -4923,20 +4924,20 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208" s="1" t="s">
         <v>147</v>
       </c>
@@ -4951,7 +4952,7 @@
       </c>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209" s="1" t="s">
         <v>317</v>
       </c>
@@ -4966,7 +4967,7 @@
       </c>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210" s="1" t="s">
         <v>317</v>
       </c>
@@ -4981,7 +4982,7 @@
       </c>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211" s="1" t="s">
         <v>317</v>
       </c>
@@ -4996,7 +4997,7 @@
       </c>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" hidden="1">
       <c r="A212" s="1" t="s">
         <v>398</v>
       </c>
@@ -5011,7 +5012,7 @@
       </c>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213" s="1" t="s">
         <v>298</v>
       </c>
@@ -5026,7 +5027,7 @@
       </c>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214" s="1" t="s">
         <v>233</v>
       </c>
@@ -5041,7 +5042,7 @@
       </c>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" hidden="1">
       <c r="A215" s="1" t="s">
         <v>145</v>
       </c>
@@ -5056,7 +5057,7 @@
       </c>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" hidden="1">
       <c r="A216" s="1" t="s">
         <v>318</v>
       </c>
@@ -5071,7 +5072,7 @@
       </c>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" hidden="1">
       <c r="A217" s="1" t="s">
         <v>233</v>
       </c>
@@ -5086,7 +5087,7 @@
       </c>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" hidden="1">
       <c r="A218" s="1" t="s">
         <v>430</v>
       </c>
@@ -5101,7 +5102,7 @@
       </c>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" hidden="1">
       <c r="A219" s="1" t="s">
         <v>448</v>
       </c>
@@ -5116,7 +5117,7 @@
       </c>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" hidden="1">
       <c r="A220" s="1" t="s">
         <v>430</v>
       </c>
@@ -5131,7 +5132,7 @@
       </c>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221" s="1" t="s">
         <v>354</v>
       </c>
@@ -5146,7 +5147,7 @@
       </c>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" hidden="1">
       <c r="A222" s="1" t="s">
         <v>148</v>
       </c>
@@ -5161,7 +5162,7 @@
       </c>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" hidden="1">
       <c r="A223" s="1" t="s">
         <v>164</v>
       </c>
@@ -5176,7 +5177,7 @@
       </c>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" hidden="1">
       <c r="A224" s="1" t="s">
         <v>362</v>
       </c>
@@ -5191,7 +5192,7 @@
       </c>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" hidden="1">
       <c r="A225" s="1" t="s">
         <v>162</v>
       </c>
@@ -5206,7 +5207,7 @@
       </c>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" hidden="1">
       <c r="A226" s="1" t="s">
         <v>169</v>
       </c>
@@ -5221,7 +5222,7 @@
       </c>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" hidden="1">
       <c r="A227" s="1" t="s">
         <v>442</v>
       </c>
@@ -5236,7 +5237,7 @@
       </c>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" hidden="1">
       <c r="A228" s="1" t="s">
         <v>448</v>
       </c>
@@ -5251,7 +5252,7 @@
       </c>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" hidden="1">
       <c r="A229" s="1" t="s">
         <v>445</v>
       </c>
@@ -5266,7 +5267,7 @@
       </c>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" hidden="1">
       <c r="A230" s="1" t="s">
         <v>451</v>
       </c>
@@ -5283,20 +5284,20 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" hidden="1">
       <c r="A232" s="1" t="s">
         <v>451</v>
       </c>
@@ -5311,7 +5312,7 @@
       </c>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" hidden="1">
       <c r="A233" s="1" t="s">
         <v>416</v>
       </c>
@@ -5328,20 +5329,20 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" hidden="1">
       <c r="A235" s="1" t="s">
         <v>455</v>
       </c>
@@ -5356,7 +5357,7 @@
       </c>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" hidden="1">
       <c r="A236" s="1" t="s">
         <v>321</v>
       </c>
@@ -5371,7 +5372,7 @@
       </c>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" hidden="1">
       <c r="A237" s="1" t="s">
         <v>416</v>
       </c>
@@ -5386,7 +5387,7 @@
       </c>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" hidden="1">
       <c r="A238" s="1" t="s">
         <v>430</v>
       </c>
@@ -5401,7 +5402,7 @@
       </c>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" hidden="1">
       <c r="A239" s="1" t="s">
         <v>169</v>
       </c>
@@ -5416,7 +5417,7 @@
       </c>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" hidden="1">
       <c r="A240" s="1" t="s">
         <v>442</v>
       </c>
@@ -5431,7 +5432,7 @@
       </c>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" hidden="1">
       <c r="A241" s="1" t="s">
         <v>164</v>
       </c>
@@ -5446,7 +5447,7 @@
       </c>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" hidden="1">
       <c r="A242" s="1" t="s">
         <v>448</v>
       </c>
@@ -5461,7 +5462,7 @@
       </c>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" hidden="1">
       <c r="A243" s="1" t="s">
         <v>416</v>
       </c>
@@ -5476,7 +5477,7 @@
       </c>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" hidden="1">
       <c r="A244" s="1" t="s">
         <v>398</v>
       </c>
@@ -5491,7 +5492,7 @@
       </c>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" hidden="1">
       <c r="A245" s="1" t="s">
         <v>362</v>
       </c>
@@ -5506,7 +5507,7 @@
       </c>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" hidden="1">
       <c r="A246" s="1" t="s">
         <v>317</v>
       </c>
@@ -5521,7 +5522,7 @@
       </c>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" hidden="1">
       <c r="A247" s="1" t="s">
         <v>318</v>
       </c>
@@ -5536,7 +5537,7 @@
       </c>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" hidden="1">
       <c r="A248" s="1" t="s">
         <v>319</v>
       </c>
@@ -5551,7 +5552,7 @@
       </c>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" hidden="1">
       <c r="A249" s="1" t="s">
         <v>434</v>
       </c>
@@ -5566,7 +5567,7 @@
       </c>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" hidden="1">
       <c r="A250" s="1" t="s">
         <v>321</v>
       </c>
@@ -5581,7 +5582,7 @@
       </c>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" hidden="1">
       <c r="A251" s="1" t="s">
         <v>434</v>
       </c>
@@ -5596,7 +5597,7 @@
       </c>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" hidden="1">
       <c r="A252" s="1" t="s">
         <v>434</v>
       </c>
@@ -5611,7 +5612,7 @@
       </c>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" hidden="1">
       <c r="A253" s="1" t="s">
         <v>362</v>
       </c>
@@ -5626,7 +5627,7 @@
       </c>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" hidden="1">
       <c r="A254" s="1" t="s">
         <v>398</v>
       </c>
@@ -5641,7 +5642,7 @@
       </c>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" hidden="1">
       <c r="A255" s="1" t="s">
         <v>465</v>
       </c>
@@ -5656,7 +5657,7 @@
       </c>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" hidden="1">
       <c r="A256" s="1" t="s">
         <v>445</v>
       </c>
@@ -5671,7 +5672,7 @@
       </c>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" hidden="1">
       <c r="A257" s="1" t="s">
         <v>451</v>
       </c>
@@ -5686,7 +5687,7 @@
       </c>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" hidden="1">
       <c r="A258" s="1" t="s">
         <v>434</v>
       </c>
@@ -5701,7 +5702,7 @@
       </c>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" hidden="1">
       <c r="A259" s="1" t="s">
         <v>285</v>
       </c>
@@ -5716,7 +5717,7 @@
       </c>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" hidden="1">
       <c r="A260" s="1" t="s">
         <v>368</v>
       </c>
@@ -5731,7 +5732,7 @@
       </c>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" hidden="1">
       <c r="A261" s="1" t="s">
         <v>387</v>
       </c>
@@ -5746,7 +5747,7 @@
       </c>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" hidden="1">
       <c r="A262" s="1" t="s">
         <v>393</v>
       </c>
@@ -5761,7 +5762,7 @@
       </c>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" hidden="1">
       <c r="A263" s="1" t="s">
         <v>314</v>
       </c>
@@ -5776,7 +5777,7 @@
       </c>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" hidden="1">
       <c r="A264" s="1" t="s">
         <v>144</v>
       </c>
@@ -5791,7 +5792,7 @@
       </c>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" hidden="1">
       <c r="A265" s="1" t="s">
         <v>233</v>
       </c>
@@ -5806,7 +5807,7 @@
       </c>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" hidden="1">
       <c r="A266" s="1" t="s">
         <v>374</v>
       </c>
@@ -5821,7 +5822,7 @@
       </c>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" hidden="1">
       <c r="A267" s="1" t="s">
         <v>394</v>
       </c>
@@ -5836,7 +5837,7 @@
       </c>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" hidden="1">
       <c r="A268" s="1" t="s">
         <v>416</v>
       </c>
@@ -5851,7 +5852,7 @@
       </c>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" hidden="1">
       <c r="A269" s="1" t="s">
         <v>147</v>
       </c>
@@ -5866,7 +5867,7 @@
       </c>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" hidden="1">
       <c r="A270" s="1" t="s">
         <v>431</v>
       </c>
@@ -5881,7 +5882,7 @@
       </c>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" hidden="1">
       <c r="A271" s="1" t="s">
         <v>163</v>
       </c>
@@ -5896,7 +5897,7 @@
       </c>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" hidden="1">
       <c r="A272" s="1" t="s">
         <v>146</v>
       </c>
@@ -5911,7 +5912,7 @@
       </c>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" hidden="1">
       <c r="A273" s="1" t="s">
         <v>321</v>
       </c>
@@ -5926,7 +5927,7 @@
       </c>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" hidden="1">
       <c r="A274" s="1" t="s">
         <v>233</v>
       </c>
@@ -5941,7 +5942,7 @@
       </c>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" hidden="1">
       <c r="A275" s="1" t="s">
         <v>434</v>
       </c>
@@ -5956,7 +5957,7 @@
       </c>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" hidden="1">
       <c r="A276" s="1" t="s">
         <v>168</v>
       </c>
@@ -5971,7 +5972,7 @@
       </c>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" hidden="1">
       <c r="A277" s="1" t="s">
         <v>434</v>
       </c>
@@ -5986,7 +5987,7 @@
       </c>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" hidden="1">
       <c r="A278" s="1" t="s">
         <v>317</v>
       </c>
@@ -6001,7 +6002,7 @@
       </c>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" hidden="1">
       <c r="A279" s="1" t="s">
         <v>317</v>
       </c>
@@ -6016,7 +6017,7 @@
       </c>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" hidden="1">
       <c r="A280" s="1" t="s">
         <v>318</v>
       </c>
@@ -6031,7 +6032,7 @@
       </c>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" hidden="1">
       <c r="A281" s="1" t="s">
         <v>319</v>
       </c>
@@ -6046,7 +6047,7 @@
       </c>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" hidden="1">
       <c r="A282" s="1" t="s">
         <v>320</v>
       </c>
@@ -6061,7 +6062,7 @@
       </c>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" hidden="1">
       <c r="A283" s="1" t="s">
         <v>233</v>
       </c>
@@ -6076,7 +6077,7 @@
       </c>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" hidden="1">
       <c r="A284" s="1" t="s">
         <v>145</v>
       </c>
@@ -6091,7 +6092,7 @@
       </c>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" hidden="1">
       <c r="A285" s="1" t="s">
         <v>445</v>
       </c>
@@ -6106,7 +6107,7 @@
       </c>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" hidden="1">
       <c r="A286" s="1" t="s">
         <v>314</v>
       </c>
@@ -6121,7 +6122,7 @@
       </c>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" hidden="1">
       <c r="A287" s="1" t="s">
         <v>163</v>
       </c>
@@ -6136,7 +6137,7 @@
       </c>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" hidden="1">
       <c r="A288" s="1" t="s">
         <v>145</v>
       </c>
@@ -6151,7 +6152,7 @@
       </c>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" hidden="1">
       <c r="A289" s="1" t="s">
         <v>147</v>
       </c>
@@ -6166,7 +6167,7 @@
       </c>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" hidden="1">
       <c r="A290" s="1" t="s">
         <v>272</v>
       </c>
@@ -6181,7 +6182,7 @@
       </c>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" hidden="1">
       <c r="A291" s="1" t="s">
         <v>262</v>
       </c>
@@ -6196,7 +6197,7 @@
       </c>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" hidden="1">
       <c r="A292" s="1" t="s">
         <v>285</v>
       </c>
@@ -6211,7 +6212,7 @@
       </c>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" hidden="1">
       <c r="A293" s="1" t="s">
         <v>442</v>
       </c>
@@ -6226,7 +6227,7 @@
       </c>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" hidden="1">
       <c r="A294" s="1" t="s">
         <v>374</v>
       </c>
@@ -6241,7 +6242,7 @@
       </c>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" hidden="1">
       <c r="A295" s="1" t="s">
         <v>394</v>
       </c>
@@ -6256,7 +6257,7 @@
       </c>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" hidden="1">
       <c r="A296" s="1" t="s">
         <v>431</v>
       </c>
@@ -6271,7 +6272,7 @@
       </c>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" hidden="1">
       <c r="A297" s="1" t="s">
         <v>168</v>
       </c>
@@ -6286,7 +6287,7 @@
       </c>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" hidden="1">
       <c r="A298" s="1" t="s">
         <v>162</v>
       </c>
@@ -6301,7 +6302,7 @@
       </c>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" hidden="1">
       <c r="A299" s="1" t="s">
         <v>162</v>
       </c>
@@ -6318,7 +6319,7 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>127</v>
@@ -6333,35 +6334,35 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="E301" s="1"/>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" hidden="1">
       <c r="A303" s="1" t="s">
         <v>455</v>
       </c>
@@ -6376,7 +6377,7 @@
       </c>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" hidden="1">
       <c r="A304" s="1" t="s">
         <v>434</v>
       </c>
@@ -6391,7 +6392,7 @@
       </c>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" hidden="1">
       <c r="A305" s="1" t="s">
         <v>362</v>
       </c>
@@ -6406,7 +6407,7 @@
       </c>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" hidden="1">
       <c r="A306" s="1" t="s">
         <v>451</v>
       </c>
@@ -6421,7 +6422,7 @@
       </c>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" hidden="1">
       <c r="A307" s="1" t="s">
         <v>233</v>
       </c>
@@ -6438,7 +6439,7 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>308</v>
@@ -6453,7 +6454,7 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
-        <v>304</v>
+        <v>467</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>308</v>
@@ -6468,35 +6469,37 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="E310" s="1"/>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E311" s="1"/>
-    </row>
-    <row r="312" spans="1:5">
+      <c r="A311" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" hidden="1">
       <c r="A312" s="1" t="s">
         <v>455</v>
       </c>
@@ -6511,7 +6514,7 @@
       </c>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" hidden="1">
       <c r="A313" s="1" t="s">
         <v>144</v>
       </c>
@@ -6526,7 +6529,7 @@
       </c>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" hidden="1">
       <c r="A314" s="1" t="s">
         <v>144</v>
       </c>
@@ -6541,7 +6544,7 @@
       </c>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" hidden="1">
       <c r="A315" s="1" t="s">
         <v>144</v>
       </c>
@@ -6556,7 +6559,7 @@
       </c>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" hidden="1">
       <c r="A316" s="1" t="s">
         <v>144</v>
       </c>
@@ -6571,7 +6574,7 @@
       </c>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" hidden="1">
       <c r="A317" s="1" t="s">
         <v>272</v>
       </c>
@@ -6586,7 +6589,7 @@
       </c>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" hidden="1">
       <c r="A318" s="1" t="s">
         <v>455</v>
       </c>
@@ -6601,7 +6604,7 @@
       </c>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" hidden="1">
       <c r="A319" s="1" t="s">
         <v>455</v>
       </c>
@@ -6616,7 +6619,7 @@
       </c>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" hidden="1">
       <c r="A320" s="1" t="s">
         <v>272</v>
       </c>
@@ -6631,7 +6634,7 @@
       </c>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" hidden="1">
       <c r="A321" s="1" t="s">
         <v>285</v>
       </c>
@@ -6646,7 +6649,7 @@
       </c>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" hidden="1">
       <c r="A322" s="1" t="s">
         <v>272</v>
       </c>
@@ -6661,7 +6664,7 @@
       </c>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" hidden="1">
       <c r="A323" s="1" t="s">
         <v>162</v>
       </c>
@@ -6676,7 +6679,7 @@
       </c>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" hidden="1">
       <c r="A324" s="1" t="s">
         <v>448</v>
       </c>
@@ -6691,7 +6694,7 @@
       </c>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" hidden="1">
       <c r="A325" s="1" t="s">
         <v>162</v>
       </c>
@@ -6706,7 +6709,7 @@
       </c>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" hidden="1">
       <c r="A326" s="1" t="s">
         <v>398</v>
       </c>
@@ -6721,7 +6724,7 @@
       </c>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" hidden="1">
       <c r="A327" s="1" t="s">
         <v>416</v>
       </c>
@@ -6736,7 +6739,7 @@
       </c>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" hidden="1">
       <c r="A328" s="1" t="s">
         <v>374</v>
       </c>
@@ -6751,7 +6754,7 @@
       </c>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" hidden="1">
       <c r="A329" s="1" t="s">
         <v>445</v>
       </c>
@@ -6766,7 +6769,7 @@
       </c>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" hidden="1">
       <c r="A330" s="1" t="s">
         <v>445</v>
       </c>
@@ -6781,7 +6784,7 @@
       </c>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" hidden="1">
       <c r="A331" s="1" t="s">
         <v>451</v>
       </c>
@@ -6796,7 +6799,7 @@
       </c>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" hidden="1">
       <c r="A332" s="1" t="s">
         <v>452</v>
       </c>
@@ -6811,7 +6814,7 @@
       </c>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" hidden="1">
       <c r="A333" s="1" t="s">
         <v>398</v>
       </c>
@@ -6826,7 +6829,7 @@
       </c>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" hidden="1">
       <c r="A334" s="1" t="s">
         <v>354</v>
       </c>
@@ -6841,7 +6844,7 @@
       </c>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" hidden="1">
       <c r="A335" s="1" t="s">
         <v>416</v>
       </c>
@@ -6856,7 +6859,7 @@
       </c>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" hidden="1">
       <c r="A336" s="1" t="s">
         <v>147</v>
       </c>
@@ -6871,7 +6874,7 @@
       </c>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" hidden="1">
       <c r="A337" s="1" t="s">
         <v>434</v>
       </c>
@@ -6886,7 +6889,7 @@
       </c>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" hidden="1">
       <c r="A338" s="1" t="s">
         <v>445</v>
       </c>
@@ -6901,7 +6904,7 @@
       </c>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" hidden="1">
       <c r="A339" s="1" t="s">
         <v>416</v>
       </c>
@@ -6916,7 +6919,7 @@
       </c>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" hidden="1">
       <c r="A340" s="1" t="s">
         <v>445</v>
       </c>
@@ -6931,7 +6934,7 @@
       </c>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" hidden="1">
       <c r="A341" s="1" t="s">
         <v>317</v>
       </c>
@@ -6946,7 +6949,7 @@
       </c>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" hidden="1">
       <c r="A342" s="1" t="s">
         <v>430</v>
       </c>
@@ -6961,7 +6964,7 @@
       </c>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" hidden="1">
       <c r="A343" s="1" t="s">
         <v>164</v>
       </c>
@@ -6976,7 +6979,7 @@
       </c>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" hidden="1">
       <c r="A344" s="1" t="s">
         <v>169</v>
       </c>
@@ -6991,7 +6994,7 @@
       </c>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" hidden="1">
       <c r="A345" s="1" t="s">
         <v>398</v>
       </c>
@@ -7006,7 +7009,7 @@
       </c>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" hidden="1">
       <c r="A346" s="1" t="s">
         <v>368</v>
       </c>
@@ -7021,7 +7024,7 @@
       </c>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" hidden="1">
       <c r="A347" s="1" t="s">
         <v>374</v>
       </c>
@@ -7036,7 +7039,7 @@
       </c>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" hidden="1">
       <c r="A348" s="1" t="s">
         <v>387</v>
       </c>
@@ -7051,7 +7054,7 @@
       </c>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" hidden="1">
       <c r="A349" s="1" t="s">
         <v>393</v>
       </c>
@@ -7066,7 +7069,7 @@
       </c>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" hidden="1">
       <c r="A350" s="1" t="s">
         <v>434</v>
       </c>
@@ -7096,7 +7099,7 @@
       </c>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" hidden="1">
       <c r="A352" s="1" t="s">
         <v>442</v>
       </c>
@@ -7111,7 +7114,7 @@
       </c>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" hidden="1">
       <c r="A353" s="1" t="s">
         <v>444</v>
       </c>
@@ -7126,7 +7129,7 @@
       </c>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" hidden="1">
       <c r="A354" s="1" t="s">
         <v>298</v>
       </c>
@@ -7141,7 +7144,7 @@
       </c>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" hidden="1">
       <c r="A355" s="1" t="s">
         <v>448</v>
       </c>
@@ -7156,7 +7159,7 @@
       </c>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" hidden="1">
       <c r="A356" s="1" t="s">
         <v>455</v>
       </c>
@@ -7171,7 +7174,7 @@
       </c>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" hidden="1">
       <c r="A357" s="1" t="s">
         <v>354</v>
       </c>
@@ -7186,7 +7189,7 @@
       </c>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" hidden="1">
       <c r="A358" s="1" t="s">
         <v>451</v>
       </c>
@@ -7201,7 +7204,7 @@
       </c>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" hidden="1">
       <c r="A359" s="1" t="s">
         <v>465</v>
       </c>
@@ -7216,7 +7219,7 @@
       </c>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" hidden="1">
       <c r="A360" s="1" t="s">
         <v>430</v>
       </c>
@@ -7231,7 +7234,7 @@
       </c>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" hidden="1">
       <c r="A361" s="1" t="s">
         <v>145</v>
       </c>
@@ -7246,7 +7249,7 @@
       </c>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" hidden="1">
       <c r="A362" s="1" t="s">
         <v>163</v>
       </c>
@@ -7261,7 +7264,7 @@
       </c>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" hidden="1">
       <c r="A363" s="1" t="s">
         <v>163</v>
       </c>
@@ -7276,7 +7279,7 @@
       </c>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" hidden="1">
       <c r="A364" s="1" t="s">
         <v>452</v>
       </c>
@@ -7291,7 +7294,7 @@
       </c>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" hidden="1">
       <c r="A365" s="1" t="s">
         <v>374</v>
       </c>
@@ -7306,7 +7309,7 @@
       </c>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" hidden="1">
       <c r="A366" s="1" t="s">
         <v>393</v>
       </c>
@@ -7321,7 +7324,7 @@
       </c>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" hidden="1">
       <c r="A367" s="1" t="s">
         <v>374</v>
       </c>
@@ -7336,7 +7339,7 @@
       </c>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" hidden="1">
       <c r="A368" s="1" t="s">
         <v>393</v>
       </c>
@@ -7353,20 +7356,20 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>301</v>
+        <v>128</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" hidden="1">
       <c r="A370" s="1" t="s">
         <v>319</v>
       </c>
@@ -7381,7 +7384,7 @@
       </c>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" hidden="1">
       <c r="A371" s="1" t="s">
         <v>394</v>
       </c>
@@ -7396,7 +7399,7 @@
       </c>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" hidden="1">
       <c r="A372" s="1" t="s">
         <v>427</v>
       </c>
@@ -7411,7 +7414,7 @@
       </c>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" hidden="1">
       <c r="A373" s="1" t="s">
         <v>451</v>
       </c>
@@ -7426,7 +7429,7 @@
       </c>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" hidden="1">
       <c r="A374" s="1" t="s">
         <v>455</v>
       </c>
@@ -7443,13 +7446,13 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="1" t="s">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>271</v>
@@ -7458,13 +7461,13 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="1" t="s">
-        <v>305</v>
+        <v>467</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>271</v>
@@ -7473,20 +7476,20 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="1" t="s">
-        <v>166</v>
+        <v>303</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" hidden="1">
       <c r="A378" s="1" t="s">
         <v>321</v>
       </c>
@@ -7501,7 +7504,7 @@
       </c>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" hidden="1">
       <c r="A379" s="1" t="s">
         <v>233</v>
       </c>
@@ -7516,7 +7519,7 @@
       </c>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" hidden="1">
       <c r="A380" s="1" t="s">
         <v>233</v>
       </c>
@@ -7533,35 +7536,35 @@
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="1" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E381" s="1"/>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="1" t="s">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" hidden="1">
       <c r="A383" s="1" t="s">
         <v>455</v>
       </c>
@@ -7576,7 +7579,7 @@
       </c>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" hidden="1">
       <c r="A384" s="1" t="s">
         <v>164</v>
       </c>
@@ -7591,7 +7594,7 @@
       </c>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" hidden="1">
       <c r="A385" s="1" t="s">
         <v>362</v>
       </c>
@@ -7606,7 +7609,7 @@
       </c>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" hidden="1">
       <c r="A386" s="1" t="s">
         <v>314</v>
       </c>
@@ -7621,7 +7624,7 @@
       </c>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" hidden="1">
       <c r="A387" s="1" t="s">
         <v>162</v>
       </c>
@@ -7636,7 +7639,7 @@
       </c>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" hidden="1">
       <c r="A388" s="1" t="s">
         <v>233</v>
       </c>
@@ -7651,7 +7654,7 @@
       </c>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" hidden="1">
       <c r="A389" s="1" t="s">
         <v>151</v>
       </c>
@@ -7666,7 +7669,7 @@
       </c>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" hidden="1">
       <c r="A390" s="1" t="s">
         <v>169</v>
       </c>
@@ -7681,7 +7684,7 @@
       </c>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" hidden="1">
       <c r="A391" s="1" t="s">
         <v>398</v>
       </c>
@@ -7696,7 +7699,7 @@
       </c>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" hidden="1">
       <c r="A392" s="1" t="s">
         <v>145</v>
       </c>
@@ -7711,7 +7714,7 @@
       </c>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" hidden="1">
       <c r="A393" s="1" t="s">
         <v>368</v>
       </c>
@@ -7726,7 +7729,7 @@
       </c>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" hidden="1">
       <c r="A394" s="1" t="s">
         <v>374</v>
       </c>
@@ -7741,7 +7744,7 @@
       </c>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" hidden="1">
       <c r="A395" s="1" t="s">
         <v>387</v>
       </c>
@@ -7756,7 +7759,7 @@
       </c>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" hidden="1">
       <c r="A396" s="1" t="s">
         <v>394</v>
       </c>
@@ -7771,7 +7774,7 @@
       </c>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" hidden="1">
       <c r="A397" s="1" t="s">
         <v>416</v>
       </c>
@@ -7786,7 +7789,7 @@
       </c>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" hidden="1">
       <c r="A398" s="1" t="s">
         <v>147</v>
       </c>
@@ -7801,7 +7804,7 @@
       </c>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" hidden="1">
       <c r="A399" s="1" t="s">
         <v>163</v>
       </c>
@@ -7816,7 +7819,7 @@
       </c>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" hidden="1">
       <c r="A400" s="1" t="s">
         <v>393</v>
       </c>
@@ -7831,7 +7834,7 @@
       </c>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" hidden="1">
       <c r="A401" s="1" t="s">
         <v>146</v>
       </c>
@@ -7846,7 +7849,7 @@
       </c>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" hidden="1">
       <c r="A402" s="1" t="s">
         <v>434</v>
       </c>
@@ -7861,7 +7864,7 @@
       </c>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" hidden="1">
       <c r="A403" s="1" t="s">
         <v>441</v>
       </c>
@@ -7878,20 +7881,20 @@
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="1" t="s">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" hidden="1">
       <c r="A405" s="1" t="s">
         <v>362</v>
       </c>
@@ -7906,7 +7909,7 @@
       </c>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" hidden="1">
       <c r="A406" s="1" t="s">
         <v>314</v>
       </c>
@@ -7921,7 +7924,7 @@
       </c>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" hidden="1">
       <c r="A407" s="1" t="s">
         <v>151</v>
       </c>
@@ -7936,7 +7939,7 @@
       </c>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" hidden="1">
       <c r="A408" s="1" t="s">
         <v>374</v>
       </c>
@@ -7951,7 +7954,7 @@
       </c>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" hidden="1">
       <c r="A409" s="1" t="s">
         <v>416</v>
       </c>
@@ -7968,20 +7971,20 @@
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" hidden="1">
       <c r="A411" s="1" t="s">
         <v>351</v>
       </c>
@@ -7996,7 +7999,7 @@
       </c>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" hidden="1">
       <c r="A412" s="1" t="s">
         <v>452</v>
       </c>
@@ -8011,7 +8014,7 @@
       </c>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" hidden="1">
       <c r="A413" s="1" t="s">
         <v>317</v>
       </c>
@@ -8026,7 +8029,7 @@
       </c>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" hidden="1">
       <c r="A414" s="1" t="s">
         <v>319</v>
       </c>
@@ -8041,7 +8044,7 @@
       </c>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" hidden="1">
       <c r="A415" s="1" t="s">
         <v>321</v>
       </c>
@@ -8056,7 +8059,7 @@
       </c>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" hidden="1">
       <c r="A416" s="1" t="s">
         <v>444</v>
       </c>
@@ -8071,7 +8074,7 @@
       </c>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" hidden="1">
       <c r="A417" s="1" t="s">
         <v>398</v>
       </c>
@@ -8086,7 +8089,7 @@
       </c>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" hidden="1">
       <c r="A418" s="1" t="s">
         <v>416</v>
       </c>
@@ -8101,7 +8104,7 @@
       </c>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" hidden="1">
       <c r="A419" s="1" t="s">
         <v>164</v>
       </c>
@@ -8116,7 +8119,7 @@
       </c>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" hidden="1">
       <c r="A420" s="1" t="s">
         <v>362</v>
       </c>
@@ -8131,7 +8134,7 @@
       </c>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" hidden="1">
       <c r="A421" s="1" t="s">
         <v>314</v>
       </c>
@@ -8146,7 +8149,7 @@
       </c>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" hidden="1">
       <c r="A422" s="1" t="s">
         <v>162</v>
       </c>
@@ -8161,7 +8164,7 @@
       </c>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="1:5" s="7" customFormat="1">
+    <row r="423" spans="1:5" s="7" customFormat="1" hidden="1">
       <c r="A423" s="1" t="s">
         <v>233</v>
       </c>
@@ -8176,7 +8179,7 @@
       </c>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" hidden="1">
       <c r="A424" s="1" t="s">
         <v>151</v>
       </c>
@@ -8191,7 +8194,7 @@
       </c>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" hidden="1">
       <c r="A425" s="1" t="s">
         <v>169</v>
       </c>
@@ -8206,7 +8209,7 @@
       </c>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" hidden="1">
       <c r="A426" s="1" t="s">
         <v>398</v>
       </c>
@@ -8221,7 +8224,7 @@
       </c>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" hidden="1">
       <c r="A427" s="1" t="s">
         <v>145</v>
       </c>
@@ -8236,7 +8239,7 @@
       </c>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" hidden="1">
       <c r="A428" s="1" t="s">
         <v>368</v>
       </c>
@@ -8251,7 +8254,7 @@
       </c>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" hidden="1">
       <c r="A429" s="1" t="s">
         <v>374</v>
       </c>
@@ -8266,7 +8269,7 @@
       </c>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" hidden="1">
       <c r="A430" s="1" t="s">
         <v>387</v>
       </c>
@@ -8281,7 +8284,7 @@
       </c>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" hidden="1">
       <c r="A431" s="1" t="s">
         <v>394</v>
       </c>
@@ -8296,7 +8299,7 @@
       </c>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" hidden="1">
       <c r="A432" s="1" t="s">
         <v>416</v>
       </c>
@@ -8311,7 +8314,7 @@
       </c>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" hidden="1">
       <c r="A433" s="1" t="s">
         <v>147</v>
       </c>
@@ -8326,7 +8329,7 @@
       </c>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:5" s="8" customFormat="1">
+    <row r="434" spans="1:5" s="8" customFormat="1" hidden="1">
       <c r="A434" s="1" t="s">
         <v>163</v>
       </c>
@@ -8341,7 +8344,7 @@
       </c>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" hidden="1">
       <c r="A435" s="1" t="s">
         <v>393</v>
       </c>
@@ -8356,7 +8359,7 @@
       </c>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" hidden="1">
       <c r="A436" s="1" t="s">
         <v>146</v>
       </c>
@@ -8371,7 +8374,7 @@
       </c>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" hidden="1">
       <c r="A437" s="1" t="s">
         <v>434</v>
       </c>
@@ -8386,7 +8389,7 @@
       </c>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" hidden="1">
       <c r="A438" s="1" t="s">
         <v>441</v>
       </c>
@@ -8403,20 +8406,20 @@
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="1" t="s">
-        <v>165</v>
+        <v>467</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" hidden="1">
       <c r="A440" s="1" t="s">
         <v>272</v>
       </c>
@@ -8431,7 +8434,7 @@
       </c>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" hidden="1">
       <c r="A441" s="1" t="s">
         <v>272</v>
       </c>
@@ -8446,7 +8449,7 @@
       </c>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" hidden="1">
       <c r="A442" s="1" t="s">
         <v>285</v>
       </c>
@@ -8461,7 +8464,7 @@
       </c>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" hidden="1">
       <c r="A443" s="1" t="s">
         <v>444</v>
       </c>
@@ -8476,7 +8479,7 @@
       </c>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" hidden="1">
       <c r="A444" s="1" t="s">
         <v>298</v>
       </c>
@@ -8491,7 +8494,7 @@
       </c>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" hidden="1">
       <c r="A445" s="1" t="s">
         <v>427</v>
       </c>
@@ -8506,7 +8509,7 @@
       </c>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="1:5" s="7" customFormat="1">
+    <row r="446" spans="1:5" s="7" customFormat="1" hidden="1">
       <c r="A446" s="1" t="s">
         <v>451</v>
       </c>
@@ -8521,7 +8524,7 @@
       </c>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" hidden="1">
       <c r="A447" s="1" t="s">
         <v>427</v>
       </c>
@@ -8536,7 +8539,7 @@
       </c>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" hidden="1">
       <c r="A448" s="1" t="s">
         <v>356</v>
       </c>
@@ -8551,7 +8554,7 @@
       </c>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" hidden="1">
       <c r="A449" s="1" t="s">
         <v>164</v>
       </c>
@@ -8566,7 +8569,7 @@
       </c>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" hidden="1">
       <c r="A450" s="1" t="s">
         <v>262</v>
       </c>
@@ -8581,7 +8584,7 @@
       </c>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" hidden="1">
       <c r="A451" s="1" t="s">
         <v>272</v>
       </c>
@@ -8596,7 +8599,7 @@
       </c>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" hidden="1">
       <c r="A452" s="1" t="s">
         <v>285</v>
       </c>
@@ -8611,7 +8614,7 @@
       </c>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" hidden="1">
       <c r="A453" s="1" t="s">
         <v>362</v>
       </c>
@@ -8626,7 +8629,7 @@
       </c>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" hidden="1">
       <c r="A454" s="1" t="s">
         <v>314</v>
       </c>
@@ -8641,7 +8644,7 @@
       </c>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" hidden="1">
       <c r="A455" s="1" t="s">
         <v>162</v>
       </c>
@@ -8656,7 +8659,7 @@
       </c>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" hidden="1">
       <c r="A456" s="1" t="s">
         <v>144</v>
       </c>
@@ -8671,7 +8674,7 @@
       </c>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" hidden="1">
       <c r="A457" s="1" t="s">
         <v>233</v>
       </c>
@@ -8686,7 +8689,7 @@
       </c>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" hidden="1">
       <c r="A458" s="1" t="s">
         <v>151</v>
       </c>
@@ -8701,7 +8704,7 @@
       </c>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" hidden="1">
       <c r="A459" s="1" t="s">
         <v>169</v>
       </c>
@@ -8716,7 +8719,7 @@
       </c>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" hidden="1">
       <c r="A460" s="1" t="s">
         <v>398</v>
       </c>
@@ -8731,7 +8734,7 @@
       </c>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" hidden="1">
       <c r="A461" s="1" t="s">
         <v>145</v>
       </c>
@@ -8746,7 +8749,7 @@
       </c>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" hidden="1">
       <c r="A462" s="1" t="s">
         <v>368</v>
       </c>
@@ -8761,7 +8764,7 @@
       </c>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" hidden="1">
       <c r="A463" s="1" t="s">
         <v>374</v>
       </c>
@@ -8776,7 +8779,7 @@
       </c>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" hidden="1">
       <c r="A464" s="1" t="s">
         <v>387</v>
       </c>
@@ -8791,7 +8794,7 @@
       </c>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" hidden="1">
       <c r="A465" s="1" t="s">
         <v>394</v>
       </c>
@@ -8806,7 +8809,7 @@
       </c>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" hidden="1">
       <c r="A466" s="1" t="s">
         <v>416</v>
       </c>
@@ -8821,7 +8824,7 @@
       </c>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" hidden="1">
       <c r="A467" s="1" t="s">
         <v>147</v>
       </c>
@@ -8836,7 +8839,7 @@
       </c>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" hidden="1">
       <c r="A468" s="1" t="s">
         <v>163</v>
       </c>
@@ -8851,7 +8854,7 @@
       </c>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" hidden="1">
       <c r="A469" s="1" t="s">
         <v>393</v>
       </c>
@@ -8866,7 +8869,7 @@
       </c>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" hidden="1">
       <c r="A470" s="1" t="s">
         <v>146</v>
       </c>
@@ -8881,7 +8884,7 @@
       </c>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="1:5" s="8" customFormat="1">
+    <row r="471" spans="1:5" s="8" customFormat="1" hidden="1">
       <c r="A471" s="1" t="s">
         <v>434</v>
       </c>
@@ -8896,7 +8899,7 @@
       </c>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" hidden="1">
       <c r="A472" s="1" t="s">
         <v>441</v>
       </c>
@@ -8916,17 +8919,17 @@
         <v>165</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" hidden="1">
       <c r="A474" s="1" t="s">
         <v>233</v>
       </c>
@@ -8941,7 +8944,70 @@
       </c>
       <c r="E474" s="1"/>
     </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E475" s="1"/>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E476" s="1"/>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E477" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E477">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="MEComplete (StepBase)"/>
+        <filter val="MEDateTime (StepBase)"/>
+        <filter val="MEModal"/>
+        <filter val="MEResponse (StepBase)"/>
+        <filter val="MESelect (StepBase)"/>
+        <filter val="MEStepBase"/>
+        <filter val="METext"/>
+        <filter val="METextInput (StepBase)"/>
+        <filter val="MEYesNo"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A7:E477">
+      <sortCondition ref="C93"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:F474">
     <sortCondition ref="E2:E474"/>
   </sortState>
